--- a/data/Varios_excel.xlsx
+++ b/data/Varios_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\cod\arc_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05057913-E08A-40B9-B2B2-B9E100CAD3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF1FA2D-1062-4314-BE00-38CAF53445B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4E88FD28-A4B2-4A58-9976-12F31159AC2D}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4E88FD28-A4B2-4A58-9976-12F31159AC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="node_index_long" sheetId="4" r:id="rId1"/>
@@ -1806,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342D7256-4090-4BDC-B1F7-E9A070087026}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -80026,7 +80026,7 @@
   <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C168"/>
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80034,7 +80034,9 @@
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4" max="12" width="11.42578125" style="3"/>
+    <col min="4" max="5" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="22" style="3" customWidth="1"/>
+    <col min="7" max="12" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
